--- a/ValueSet-uscore-treatment-intervention-preference.xlsx
+++ b/ValueSet-uscore-treatment-intervention-preference.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from US Core Treatmen" r:id="rId4" sheetId="2"/>
+    <sheet name="Include ValueSets" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from US Core Treatmen" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://www.fhir.org/guides/uscdi4-sandbox/ValueSet/uscore-treatment-intervention-preference</t>
+    <t>http://hl7.org/fhir/us/core/ValueSet/uscore-treatment-intervention-preference</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-15</t>
+    <t>2023-10-02</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,10 +100,19 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Codes</t>
-  </si>
-  <si>
-    <t>All codes</t>
+    <t>ValueSet URL</t>
+  </si>
+  <si>
+    <t>https://cts.nlm.nih.gov/fhir/res/ValueSet/2.16.840.1.113762.1.4.1115.9</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>intervention-preference</t>
+  </si>
+  <si>
+    <t>Intervention preference</t>
   </si>
   <si>
     <t/>
@@ -111,7 +121,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://www.fhir.org/guides/uscdi4-sandbox/CodeSystem/uscore-treatment-intervention-preference</t>
+    <t>http://hl7.org/fhir/us/core/CodeSystem/uscore-treatment-intervention-preference</t>
   </si>
 </sst>
 </file>
@@ -378,6 +388,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -390,28 +427,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
